--- a/StructureDefinition-vp-vaccination-dose-base-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-base-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T13:02:01+00:00</t>
+    <t>2022-08-11T13:55:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-dose-base-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-base-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T13:55:21+00:00</t>
+    <t>2022-08-12T19:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-dose-base-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-base-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$28</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="160">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T19:53:56+00:00</t>
+    <t>2022-08-13T11:44:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -506,13 +506,6 @@
   </si>
   <si>
     <t xml:space="preserve">markdown
-</t>
-  </si>
-  <si>
-    <t>vaccinationScheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-vaccination-scheme)
 </t>
   </si>
   <si>
@@ -835,7 +828,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -845,7 +838,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.9609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.94921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.3359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3520,13 +3513,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>72</v>
       </c>
@@ -3538,7 +3529,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>72</v>
@@ -3547,22 +3538,24 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>72</v>
@@ -3604,27 +3597,27 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3635,7 +3628,7 @@
         <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>72</v>
@@ -3647,13 +3640,13 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3704,7 +3697,7 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
@@ -3716,518 +3709,14 @@
         <v>72</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" hidden="true">
-      <c r="A30" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" hidden="true">
-      <c r="A32" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" hidden="true">
-      <c r="A33" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ33">
+  <autoFilter ref="A1:AJ28">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4237,7 +3726,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI32">
+  <conditionalFormatting sqref="A2:AI27">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-vp-vaccination-dose-base-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-base-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-13T11:44:57+00:00</t>
+    <t>2022-08-23T12:16:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
